--- a/Contractors.xlsx
+++ b/Contractors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Greenbean\Shopper\projects\yummi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A2EC56-78C8-4E15-95B7-2075EE3B0210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49788E2-657F-4881-B2D6-49D038B129AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
